--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_245.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_245.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,43 +488,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
-        </is>
+          <t>schubert-winterreise_122</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(5.88, 12.78)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(20.42, 23.5)]</t>
+          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:26.200000', '0:00:33.960000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:02.560000', '0:00:04.800000'), ('0:00:00.300000', '0:00:03.340000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -528,43 +538,48 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['G:min', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(1.36, 4.74)]</t>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>[('0:00:02.580000', '0:00:05.020000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -573,580 +588,580 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(0.78, 98.82)]</t>
+          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[('0:00:08.180000', '0:00:14.180000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:02.680000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>isophonics_22</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09999999999999999</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['B', 'B/3', 'E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(9.9, 26.98)]</t>
+          <t>[['G', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(2.58, 7.08)]</t>
+          <t>[('0:02:33.617981', '0:02:41.988775')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:10.090897', '0:00:16.615704')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[['E:7', 'A:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(55.4, 65.22)]</t>
+          <t>[('0:00:10.240000', '0:00:21.020000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:14.780000', '0:00:19.020000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(35.22, 40.0)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(32.98, 35.26)]</t>
+          <t>[('0:00:07.525011', '0:00:20.319206')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:46.932280', '0:01:01.200942')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Bb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5535714285714286</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'B']]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj'], ['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(29.719863, 35.722222)]</t>
+          <t>[['A', 'E', 'A', 'E', 'A', 'E'], ['E:7', 'A', 'E', 'A', 'E', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(35.080113, 43.578616)]</t>
+          <t>[('0:00:09.540000', '0:00:13.280000'), ('0:00:08.960000', '0:00:12.680000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[('0:00:04.605000', '0:00:21.095000'), ('0:00:03.509000', '0:00:18.764000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(44.2, 54.16)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(23.42, 33.96)]</t>
+          <t>[('0:00:17.360000', '0:00:20.700000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:03:57.580000', '0:04:13.720000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8)]</t>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:39.020000', '0:00:57.200000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3645833333333334</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['D/5', 'A', 'G/2', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (13.48, 20.96)]</t>
+          <t>[['D', 'A', 'G/2', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.78, 14.36), (1.54, 6.68)]</t>
+          <t>[('0:01:02.291000', '0:01:08.376000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:47.804648', '0:00:55.548503')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09807692307692308</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'A']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.425</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['D/5', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[['F:maj', 'C:maj/G', 'F:maj/A'], ['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.46, 13.64)]</t>
+          <t>[('0:00:27.963197', '0:00:34.290634'), ('0:00:28.450816', '0:00:36.229501')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:02:25.040000', '0:02:27.860000'), ('0:02:22.140000', '0:02:26.800000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(9.7, 15.02)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(107.4, 126.86)]</t>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_35</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(30.24, 38.5)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:12.720000', '0:00:17.020000'), ('0:00:22.360000', '0:00:25.240000'), ('0:00:17.760000', '0:00:19.180000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(2.36, 5.68)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>schubert-winterreise_146</t>
         </is>
       </c>
-      <c r="C16" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(103.42, 115.04)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:00.280000', '0:01:43.400000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1154,49 +1169,9 @@
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(36.66, 43.94)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(40.38, 42.28)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
